--- a/data/142/STANOR/10799 Annual non-financial sector accounts. Income expenditure and saving.xlsx
+++ b/data/142/STANOR/10799 Annual non-financial sector accounts. Income expenditure and saving.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>10799: Annual non-financial sector accounts. Income, expenditure and saving (NOK million), by sector, transaction, year and contents</x:t>
   </x:si>
@@ -173,6 +173,9 @@
     <x:t>2020</x:t>
   </x:si>
   <x:si>
+    <x:t>2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>Current prices</x:t>
   </x:si>
   <x:si>
@@ -191,13 +194,13 @@
     <x:t>Figures for detailed sector are corrected 29 January 2020.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Current prices:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211201 08:00</x:t>
+    <x:t>20220302 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -646,23 +649,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AS53"/>
+  <x:dimension ref="A1:AT53"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.120625" style="0" customWidth="1"/>
-    <x:col min="3" max="45" width="14.090625" style="0" customWidth="1"/>
+    <x:col min="1" max="46" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:45">
+    <x:row r="1" spans="1:46">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:45">
+    <x:row r="3" spans="1:46">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -792,144 +793,150 @@
       <x:c r="AS3" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:45">
+      <x:c r="AT3" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:46">
       <x:c r="C4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="Q4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="R4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="S4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="U4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="X4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="Y4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="Z4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AA4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AB4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AC4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AD4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AE4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AF4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AH4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AI4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AJ4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AK4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AL4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AM4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AN4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AO4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AP4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AQ4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AR4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AS4" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:45">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AT4" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:46">
       <x:c r="A5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>194772</x:v>
@@ -1058,160 +1065,166 @@
         <x:v>3022515</x:v>
       </x:c>
       <x:c r="AS5" s="3" t="n">
-        <x:v>2830223</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:45">
+        <x:v>2845507</x:v>
+      </x:c>
+      <x:c r="AT5" s="3" t="n">
+        <x:v>3594950</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:46">
       <x:c r="A7" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:45">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:46">
       <x:c r="A8" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:45">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:46">
       <x:c r="A9" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:45">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:46">
       <x:c r="A12" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:45">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:46">
       <x:c r="A13" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:45">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:46">
       <x:c r="A14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:46">
+      <x:c r="A16" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:46">
+      <x:c r="A17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:46">
+      <x:c r="A19" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:46">
+      <x:c r="A20" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:45">
-      <x:c r="A16" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:45">
-      <x:c r="A17" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:45">
-      <x:c r="A19" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:45">
-      <x:c r="A20" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:45">
+    <x:row r="21" spans="1:46">
       <x:c r="A21" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:45">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:46">
       <x:c r="A22" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:45">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:46">
       <x:c r="A23" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:45">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:46">
       <x:c r="A25" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:45">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:46">
       <x:c r="A26" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:45">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:46">
       <x:c r="A27" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:45">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:46">
       <x:c r="A31" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:45">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:46">
       <x:c r="A33" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:45">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:46">
       <x:c r="A34" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:45">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:46">
       <x:c r="A35" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:45">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:46">
       <x:c r="A36" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:45">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:46">
       <x:c r="A37" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:45">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:46">
       <x:c r="A38" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:45">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:46">
       <x:c r="A40" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:45">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:46">
       <x:c r="A41" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:45">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:46">
       <x:c r="A42" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:45">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:46">
       <x:c r="A49" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:45">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:46">
       <x:c r="A50" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:45">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:46">
       <x:c r="A52" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:45">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:46">
       <x:c r="A53" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A9:AT9"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
